--- a/JavaBatch6/testdata/AnotherFile.xlsx
+++ b/JavaBatch6/testdata/AnotherFile.xlsx
@@ -1,21 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/syntax/eclipse-workspace/JavaBasics/testdata/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{37E20143-5D23-5442-9852-49CB8620292C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="37720" yWindow="460" windowWidth="27640" windowHeight="15540" xr2:uid="{CD3A54CB-C005-0E4A-932C-421D6A132F4C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20010" windowHeight="5235"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="TestSheet" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:O14"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,8 +26,19 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>ziya</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -376,12 +383,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04D793F7-630D-9741-BAE5-9B86014DDE1E}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
